--- a/image/conditiondefinition.xlsx
+++ b/image/conditiondefinition.xlsx
@@ -1155,45 +1155,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.41015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="155.9453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.47265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="156.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/conditiondefinition.xlsx
+++ b/image/conditiondefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="322">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>ConditionDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the condition definition</t>
@@ -1155,45 +1151,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.41015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="156.88671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="155.9453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.47265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2563,16 +2559,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2637,10 +2633,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2651,7 +2647,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2674,19 +2670,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2735,7 +2731,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2744,7 +2740,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2764,7 +2760,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2787,16 +2783,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2846,7 +2842,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2861,7 +2857,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2875,7 +2871,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2898,13 +2894,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2955,7 +2951,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2984,7 +2980,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3010,13 +3006,13 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3042,49 +3038,49 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3095,7 +3091,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3118,19 +3114,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3179,7 +3175,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3194,10 +3190,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3208,11 +3204,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3231,16 +3227,16 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3290,7 +3286,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3305,10 +3301,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3319,7 +3315,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3342,19 +3338,19 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3403,7 +3399,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3418,10 +3414,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3432,7 +3428,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3455,16 +3451,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3514,7 +3510,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3529,7 +3525,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3543,7 +3539,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3566,16 +3562,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3625,7 +3621,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3640,7 +3636,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3654,7 +3650,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3677,19 +3673,19 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3738,7 +3734,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3753,7 +3749,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -3767,7 +3763,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3790,16 +3786,16 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3825,14 +3821,14 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3849,7 +3845,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3864,7 +3860,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -3878,7 +3874,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3901,17 +3897,17 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3936,14 +3932,14 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3960,7 +3956,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>48</v>
@@ -3989,7 +3985,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4012,16 +4008,16 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4050,10 +4046,10 @@
         <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4071,7 +4067,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4100,7 +4096,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4123,16 +4119,16 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4158,14 +4154,14 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4182,7 +4178,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4211,7 +4207,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4234,13 +4230,13 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4267,14 +4263,14 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4320,7 +4316,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4343,13 +4339,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4400,7 +4396,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4429,7 +4425,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4452,13 +4448,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4509,7 +4505,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4538,7 +4534,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4561,13 +4557,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4618,7 +4614,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4647,7 +4643,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4673,10 +4669,10 @@
         <v>61</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4727,7 +4723,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4756,7 +4752,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4779,13 +4775,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4836,7 +4832,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4848,7 +4844,7 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
@@ -4865,7 +4861,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4888,13 +4884,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4945,36 +4941,36 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5003,7 +4999,7 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -5056,7 +5052,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5080,16 +5076,16 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5111,10 +5107,10 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>96</v>
@@ -5169,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5198,7 +5194,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5221,13 +5217,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5257,11 +5253,11 @@
         <v>71</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5278,7 +5274,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5307,7 +5303,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5330,13 +5326,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5363,14 +5359,14 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5416,7 +5412,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5439,13 +5435,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5496,7 +5492,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5508,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5548,13 +5544,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5605,36 +5601,36 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5663,7 +5659,7 @@
         <v>94</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>96</v>
@@ -5716,7 +5712,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5740,16 +5736,16 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5771,10 +5767,10 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>96</v>
@@ -5829,7 +5825,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5858,7 +5854,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5881,13 +5877,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5914,14 +5910,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5938,7 +5934,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5967,7 +5963,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5990,13 +5986,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6023,14 +6019,14 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6076,7 +6072,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6099,13 +6095,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6156,7 +6152,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6168,7 +6164,7 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
@@ -6185,7 +6181,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6208,13 +6204,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6265,36 +6261,36 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6323,7 +6319,7 @@
         <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>96</v>
@@ -6376,7 +6372,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6400,16 +6396,16 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6431,10 +6427,10 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>96</v>
@@ -6489,7 +6485,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6518,7 +6514,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6544,10 +6540,10 @@
         <v>67</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6574,14 +6570,14 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6598,7 +6594,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>48</v>
@@ -6627,7 +6623,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6650,13 +6646,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6683,14 +6679,14 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6707,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -6736,7 +6732,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6759,13 +6755,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6816,7 +6812,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6845,7 +6841,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6868,13 +6864,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6925,7 +6921,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6954,7 +6950,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6977,13 +6973,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7034,7 +7030,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7046,7 +7042,7 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
@@ -7063,7 +7059,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7086,13 +7082,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7143,36 +7139,36 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7201,7 +7197,7 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>96</v>
@@ -7254,7 +7250,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7278,16 +7274,16 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7309,10 +7305,10 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>96</v>
@@ -7367,7 +7363,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7396,7 +7392,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7422,10 +7418,10 @@
         <v>67</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7452,14 +7448,14 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7476,7 +7472,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7505,7 +7501,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7528,13 +7524,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7585,7 +7581,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7614,7 +7610,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7637,13 +7633,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7694,7 +7690,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7706,7 +7702,7 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
@@ -7723,7 +7719,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7746,13 +7742,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7803,36 +7799,36 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7861,7 +7857,7 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>96</v>
@@ -7914,7 +7910,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7938,16 +7934,16 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7969,10 +7965,10 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -8027,7 +8023,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8056,7 +8052,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8079,13 +8075,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8136,7 +8132,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8165,7 +8161,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8188,13 +8184,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8245,7 +8241,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
